--- a/BY_Trans.xlsx
+++ b/BY_Trans.xlsx
@@ -1,41 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Migrating Task\Training material_migrated\DemoS_001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCB1BA6A-E8B3-495E-9F73-B41417CDD3F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19A935B-654B-4585-BC94-E61EF3A17B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trans Tables" sheetId="17" r:id="rId1"/>
     <sheet name="FILL Table" sheetId="19" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
     <author>Gary Goldstein</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="1" shapeId="0">
+    <comment ref="H5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M5" authorId="1" shapeId="0">
+    <comment ref="M5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -89,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="1" shapeId="0">
+    <comment ref="H13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -102,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M13" authorId="1" shapeId="0">
+    <comment ref="M13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -185,14 +177,14 @@
     <t>Tech_Comm_Info</t>
   </si>
   <si>
-    <t>REG1</t>
+    <t>ETH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -225,12 +217,6 @@
       <sz val="12"/>
       <color indexed="53"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -317,7 +303,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -338,9 +324,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -378,9 +364,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,26 +399,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -465,26 +434,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -657,11 +609,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -826,10 +780,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
